--- a/biology/Zoologie/Gigantopora/Gigantopora.xlsx
+++ b/biology/Zoologie/Gigantopora/Gigantopora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gigantopora est un genre d'ectoproctes de la famille des Gigantoporidae (ordre de Cheilostomatida).
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Gigantopora a été créé en 1881 par le spongiologue anglais Stuart Oliver Ridley (d) (1853-1935) avec pour espèce type Gigantopora lyncoides[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Gigantopora a été créé en 1881 par le spongiologue anglais Stuart Oliver Ridley (d) (1853-1935) avec pour espèce type Gigantopora lyncoides
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (9 août 2021)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (9 août 2021) :
 Gigantopora birostris Tilbrook, 2006
 † Gigantopora cribraria (MacGillivray, 1895)
 † Gigantopora duplicata (Reuss, 1848)
@@ -599,7 +615,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Stuart O. Ridley, « Account of the Polyzoa collected during the Survey of H.M.S. 'Alert' in the Straits of Magellan and on the Coast of Patagonia », Proceedings of the Zoological Society of London, Londres, ZSL, vol. 1881,‎ 1881, p. 44-61 (ISSN 0370-2774, OCLC 1779524, BNF 32843178, lire en ligne)</t>
         </is>
